--- a/Measurements.xlsx
+++ b/Measurements.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29518"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="42" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A87AD3C0-0A6B-4725-AAA9-66F233665475}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D9C38E4-4F08-43C5-A3F5-6C0F8D4907FE}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -252,7 +252,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>7.44</c:v>
+                  <c:v>5.3250000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.327</c:v>
@@ -1480,7 +1480,7 @@
   <dimension ref="A2:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.44</v>
+        <v>5.3250000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:3">
